--- a/medicine/Enfance/Valérie_Dayre/Valérie_Dayre.xlsx
+++ b/medicine/Enfance/Valérie_Dayre/Valérie_Dayre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Dayre</t>
+          <t>Valérie_Dayre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valérie Dayre est une auteure française d'ouvrages pour la jeunesse, née le 15 décembre 1958.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Dayre</t>
+          <t>Valérie_Dayre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle travaille d'abord comme traductrice depuis l'anglais, traduisant des romans d'heroic fantasy de Stephen R. Donaldson. Elle traduit également l'intégrale de Little Nemo de Winsor McCay.
-Elle écrit pour la jeunesse et rencontre un bon accueil critique pour C'est la vie, Lili (1991) qui reçoit le Prix Sorcières en 1992[1]. Elle est l'auteur de plus d'une trentaines d'ouvrages publiés chez Milan, L'École des loisirs ou L'atelier du poisson soluble.
+Elle écrit pour la jeunesse et rencontre un bon accueil critique pour C'est la vie, Lili (1991) qui reçoit le Prix Sorcières en 1992. Elle est l'auteur de plus d'une trentaines d'ouvrages publiés chez Milan, L'École des loisirs ou L'atelier du poisson soluble.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Dayre</t>
+          <t>Valérie_Dayre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(liste non exhaustive)
 C’est la vie, Lili, Syros, 1991
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Dayre</t>
+          <t>Valérie_Dayre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,11 +617,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix Sorcières 1992[1]  catégorie Roman pour C'est la vie Lili
- Deutscher Jugendliteraturpreis 2006[2] catégorie livre jeunesse, pour C'est la vie Lili
-Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[3] en 2024, dont Retour en Afrique (2004) ou Tes petits camarades (2008).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Sorcières 1992  catégorie Roman pour C'est la vie Lili
+ Deutscher Jugendliteraturpreis 2006 catégorie livre jeunesse, pour C'est la vie Lili
+Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024, dont Retour en Afrique (2004) ou Tes petits camarades (2008).
 </t>
         </is>
       </c>
